--- a/docs/data/trainings.xlsx
+++ b/docs/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>3_Heinzmann.pdf</t>
+  </si>
+  <si>
+    <t>BBS/BES Causal inference course by Prof. Miguel Hernan</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,9 +662,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="str">
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>

--- a/docs/data/trainings.xlsx
+++ b/docs/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -87,7 +87,16 @@
     <t>3_Heinzmann.pdf</t>
   </si>
   <si>
-    <t>BBS/BES Causal inference course by Prof. Miguel Hernan</t>
+    <t>BBS Course: Group-Sequential and Adaptive Designs</t>
+  </si>
+  <si>
+    <t>BBS/BES Causal inference course</t>
+  </si>
+  <si>
+    <t>Miguel Hernan</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach, Daniel Sabanés Bové, Marc Vandemeulebroecke, Marcel Wolbers</t>
   </si>
 </sst>
 </file>
@@ -119,6 +128,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,27 +672,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="str">
         <f>"19.08.2019"</f>
         <v>19.08.2019</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="4"/>

--- a/docs/data/trainings.xlsx
+++ b/docs/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Kaspar Rufibach, Daniel Sabanés Bové, Marc Vandemeulebroecke, Marcel Wolbers</t>
+  </si>
+  <si>
+    <t>Workshop Adaptive Designs and Multiple Testing Procedures</t>
   </si>
 </sst>
 </file>
@@ -710,11 +713,18 @@
       <c r="G6" s="6"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="str">
+        <f>"05.06.2014"</f>
+        <v>05.06.2014</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>

--- a/docs/data/trainings.xlsx
+++ b/docs/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>recording</t>
-  </si>
-  <si>
-    <t>https://streamingmedia.roche.com/media/BBS+virtual+seminarA+COVID-19+pandemic+%26+how+we+deal+with+data/1_lguf3l7i</t>
   </si>
   <si>
     <t>seminar_title</t>
@@ -560,7 +557,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -602,31 +599,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
@@ -640,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
@@ -663,16 +658,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,14 +676,14 @@
         <v>19.08.2019</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -700,14 +695,14 @@
         <v>01.03.2018</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -719,7 +714,7 @@
         <v>05.06.2014</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="4">

--- a/docs/data/trainings.xlsx
+++ b/docs/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -158,6 +158,18 @@
   <si>
     <t>summary</t>
   </si>
+  <si>
+    <t>Advanced group-sequential and adaptive confirmatory clinical trial designs, with R practicals using rpact</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach, Marc Vandemeulebroecke, Gernot Wassmer, Marcel Wolbers</t>
+  </si>
+  <si>
+    <t>Roche, Novartis, rpact, Roche</t>
+  </si>
+  <si>
+    <t>trainings/20220913/20220913_gsd_adaptive.html</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +306,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -322,7 +334,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9525" cy="9525"/>
@@ -616,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L951"/>
+  <dimension ref="A1:L952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -668,106 +680,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
-        <f>"29.03.2022"</f>
-        <v>29.03.2022</v>
+        <f>"13.09.2022"</f>
+        <v>13.09.2022</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f>"29.03.2022"</f>
         <v>29.03.2022</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>"29.03.2022"</f>
+        <v>29.03.2022</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="str">
+      <c r="K4" s="18"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
         <f>"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="str">
-        <f t="shared" ref="A5:A7" si="0">"21.02.2022"</f>
-        <v>21.02.2022</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>36</v>
@@ -776,17 +786,17 @@
         <v>9</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A6:A8" si="0">"21.02.2022"</f>
         <v>21.02.2022</v>
       </c>
       <c r="B6" s="4"/>
@@ -794,7 +804,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>36</v>
@@ -803,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="3"/>
@@ -821,7 +831,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>36</v>
@@ -830,67 +840,69 @@
         <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="str">
-        <f>"02.02.2021"</f>
-        <v>02.02.2021</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>21.02.2022</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4">
-        <v>1</v>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>13</v>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>11</v>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>14</v>
+      <c r="J8" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="str">
         <f>"02.02.2021"</f>
         <v>02.02.2021</v>
@@ -900,49 +912,53 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="str">
-        <f>"19.08.2019"</f>
-        <v>19.08.2019</v>
+        <f>"02.02.2021"</f>
+        <v>02.02.2021</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="str">
-        <f>"01.03.2018"</f>
-        <v>01.03.2018</v>
+        <f>"19.08.2019"</f>
+        <v>19.08.2019</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
@@ -951,38 +967,47 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="str">
+        <f>"01.03.2018"</f>
+        <v>01.03.2018</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="str">
         <f>"05.06.2014"</f>
         <v>05.06.2014</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1061,11 +1086,11 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1076,8 +1101,8 @@
       <c r="A22" s="6"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="4"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1093,6 +1118,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1104,7 +1130,6 @@
       <c r="F24" s="4"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1127,8 +1152,8 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,7 +1164,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="16"/>
     </row>
@@ -1150,9 +1175,9 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,8 +1187,8 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="16"/>
     </row>
@@ -1176,7 +1201,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="6"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1198,9 +1223,9 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,7 +1237,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="17"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1222,34 +1247,34 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="4"/>
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -1309,7 +1334,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
@@ -1329,7 +1354,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="1"/>
@@ -1361,8 +1386,8 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="2"/>
@@ -1409,8 +1434,8 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="2"/>
@@ -1421,8 +1446,8 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="2"/>
@@ -1517,8 +1542,8 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
@@ -2884,16 +2909,16 @@
       <c r="J172" s="1"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="3"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="2"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
@@ -12231,6 +12256,18 @@
       <c r="I951" s="3"/>
       <c r="J951" s="3"/>
     </row>
+    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A952" s="14"/>
+      <c r="B952" s="9"/>
+      <c r="C952" s="9"/>
+      <c r="D952" s="5"/>
+      <c r="E952" s="5"/>
+      <c r="F952" s="3"/>
+      <c r="G952" s="5"/>
+      <c r="H952" s="5"/>
+      <c r="I952" s="3"/>
+      <c r="J952" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/data/trainings.xlsx
+++ b/docs/data/trainings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -168,7 +168,10 @@
     <t>Roche, Novartis, rpact, Roche</t>
   </si>
   <si>
-    <t>trainings/20220913/20220913_gsd_adaptive.html</t>
+    <t>Collection of all materials</t>
+  </si>
+  <si>
+    <t>20220913_gsd_adaptive.html</t>
   </si>
 </sst>
 </file>
@@ -630,9 +633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L952"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,9 +693,6 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
@@ -702,8 +702,12 @@
       <c r="H2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
